--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDoQuocTuan\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDoQuocTuan\Desktop\QuanLyBanQuanAo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -272,7 +272,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,14 +323,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,7 +438,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -522,11 +514,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -999,11 +988,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1113914144"/>
-        <c:axId val="-1113909792"/>
+        <c:axId val="-2035251536"/>
+        <c:axId val="-2035240656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1113914144"/>
+        <c:axId val="-2035251536"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1013,7 +1002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1113909792"/>
+        <c:crossAx val="-2035240656"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1113909792"/>
+        <c:axId val="-2035240656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1033,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1113914144"/>
+        <c:crossAx val="-2035251536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,7 +1399,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1463,7 +1452,7 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>42609</v>
       </c>
       <c r="C7" s="1"/>
@@ -1472,7 +1461,7 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>42653</v>
       </c>
       <c r="C8" s="1"/>
@@ -1528,7 +1517,7 @@
         <f t="shared" ref="E12" si="0">D12-C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1549,7 +1538,7 @@
         <f t="shared" ref="E13:E27" si="1">D13-C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1570,8 +1559,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>11</v>
+      <c r="F14" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDoQuocTuan\Desktop\QuanLyBanQuanAo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDoQuocTuan\Documents\GITHUB\QuanLyBanQuanAo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -237,9 +237,6 @@
     <t>Detailed Reqs.</t>
   </si>
   <si>
-    <t>Techincal Reqs.</t>
-  </si>
-  <si>
     <t>DB Development</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Technical Reqs.</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
                   <c:v>Detailed Reqs.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Techincal Reqs.</c:v>
+                  <c:v>Technical Reqs.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>DB Development</c:v>
@@ -879,7 +879,7 @@
                   <c:v>Detailed Reqs.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Techincal Reqs.</c:v>
+                  <c:v>Technical Reqs.</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>DB Development</c:v>
@@ -988,11 +988,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2035251536"/>
-        <c:axId val="-2035240656"/>
+        <c:axId val="1582432832"/>
+        <c:axId val="1582431200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2035251536"/>
+        <c:axId val="1582432832"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1002,7 +1002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2035240656"/>
+        <c:crossAx val="1582431200"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2035240656"/>
+        <c:axId val="1582431200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1022,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2035251536"/>
+        <c:crossAx val="1582432832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,7 +1399,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
@@ -1560,12 +1560,12 @@
         <v>3</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>63</v>
@@ -1580,13 +1580,13 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
+      <c r="F15" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>62</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>62</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>63</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>63</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>63</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>62</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>62</v>

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>Tasks</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Technical Reqs.</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,6 +332,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,7 +449,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -516,6 +527,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -988,11 +1002,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1582432832"/>
-        <c:axId val="1582431200"/>
+        <c:axId val="-528876416"/>
+        <c:axId val="-528878048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1582432832"/>
+        <c:axId val="-528876416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1002,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582431200"/>
+        <c:crossAx val="-528878048"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582431200"/>
+        <c:axId val="-528878048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1022,7 +1036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582432832"/>
+        <c:crossAx val="-528876416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,7 +1413,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1601,8 +1615,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
+      <c r="F16" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -339,7 +339,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,11 +1002,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-528876416"/>
-        <c:axId val="-528878048"/>
+        <c:axId val="-392846144"/>
+        <c:axId val="-392846688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-528876416"/>
+        <c:axId val="-392846144"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1016,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-528878048"/>
+        <c:crossAx val="-392846688"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1024,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-528878048"/>
+        <c:axId val="-392846688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1036,7 +1036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-528876416"/>
+        <c:crossAx val="-392846144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,7 +1413,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1615,8 +1615,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>76</v>
+      <c r="F16" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
@@ -1636,8 +1636,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
+      <c r="F17" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -1002,11 +1002,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-392846144"/>
-        <c:axId val="-392846688"/>
+        <c:axId val="364724176"/>
+        <c:axId val="441884448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-392846144"/>
+        <c:axId val="364724176"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1016,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-392846688"/>
+        <c:crossAx val="441884448"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1024,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-392846688"/>
+        <c:axId val="441884448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1036,7 +1036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-392846144"/>
+        <c:crossAx val="364724176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,8 +1636,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>76</v>
+      <c r="F17" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
@@ -1657,8 +1657,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
+      <c r="F18" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -1002,11 +1002,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="364724176"/>
-        <c:axId val="441884448"/>
+        <c:axId val="1797463808"/>
+        <c:axId val="1797460544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="364724176"/>
+        <c:axId val="1797463808"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1016,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441884448"/>
+        <c:crossAx val="1797460544"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1024,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441884448"/>
+        <c:axId val="1797460544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1036,7 +1036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364724176"/>
+        <c:crossAx val="1797463808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,7 +1413,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1657,8 +1657,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>76</v>
+      <c r="F18" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
@@ -1678,8 +1678,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
+      <c r="F19" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Tasks</t>
   </si>
@@ -264,7 +264,10 @@
     <t>Technical Reqs.</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>Ngô Thị Tường Vy + Nguyễn Đỗ Quốc Tuấn</t>
+  </si>
+  <si>
+    <t>Overdue</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,11 +1005,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1797463808"/>
-        <c:axId val="1797460544"/>
+        <c:axId val="855304768"/>
+        <c:axId val="855135840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1797463808"/>
+        <c:axId val="855304768"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1016,7 +1019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1797460544"/>
+        <c:crossAx val="855135840"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1024,7 +1027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1797460544"/>
+        <c:axId val="855135840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1036,7 +1039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1797463808"/>
+        <c:crossAx val="855304768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1666,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6">
         <v>42619</v>
@@ -1679,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -17,6 +17,9 @@
     <sheet name="Cost Baseline" sheetId="3" r:id="rId3"/>
     <sheet name="Communication Plan" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>Tasks</t>
   </si>
@@ -50,12 +53,6 @@
     <t>UI Client</t>
   </si>
   <si>
-    <t>Dev. Complete</t>
-  </si>
-  <si>
-    <t>Hardware Config.</t>
-  </si>
-  <si>
     <t>Launch</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Standup meetings </t>
-  </si>
-  <si>
-    <t>Function 1</t>
   </si>
   <si>
     <t>Lê Khánh</t>
@@ -237,24 +231,12 @@
     <t>Detailed Reqs.</t>
   </si>
   <si>
-    <t>DB Development</t>
-  </si>
-  <si>
-    <t>Connect DB</t>
-  </si>
-  <si>
     <t>Insert/Update/Query</t>
   </si>
   <si>
     <t>API Development</t>
   </si>
   <si>
-    <t>Function 2…</t>
-  </si>
-  <si>
-    <t>System Testing</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -264,10 +246,79 @@
     <t>Technical Reqs.</t>
   </si>
   <si>
-    <t>Ngô Thị Tường Vy + Nguyễn Đỗ Quốc Tuấn</t>
-  </si>
-  <si>
-    <t>Overdue</t>
+    <t>Connect Database</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Hoạt động của nhà quản trị</t>
+  </si>
+  <si>
+    <t>Hoạt động của khách hàng</t>
+  </si>
+  <si>
+    <t>Database Development</t>
+  </si>
+  <si>
+    <t>Nhập dữ liệu bảng</t>
+  </si>
+  <si>
+    <t>Sizemap</t>
+  </si>
+  <si>
+    <t>Xác định thực thể, thuộc tính</t>
+  </si>
+  <si>
+    <t>Xác định ràng buộc</t>
+  </si>
+  <si>
+    <t>Tạo cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Giao diện website</t>
+  </si>
+  <si>
+    <t>Giao diện các trang nội dung website</t>
+  </si>
+  <si>
+    <t>Giới thiệu</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Quần áo nam:Áo sơ mi, Áo thun, Áo khoác, Quần jean, Quần kaki, Quần tây, Quần lửng</t>
+  </si>
+  <si>
+    <t>Quần áo nữ:Áo sơ mi, Áo thun, Áo khoác, Áo đầm, Quần jean, Quần tây, Quần lửng, Váy</t>
+  </si>
+  <si>
+    <t>Function 1 Tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>Function 2 Giỏ hàng</t>
+  </si>
+  <si>
+    <t>Function 3 Đăng nhập</t>
+  </si>
+  <si>
+    <t>Function 4 Đăng ký</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -374,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -441,6 +492,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -452,31 +573,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,9 +616,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -529,11 +626,137 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -548,6 +771,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -585,7 +813,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Project Plan and Gantt'!$C$11</c:f>
+              <c:f>'Project Plan and Gantt'!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -604,9 +832,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Plan and Gantt'!$A$12:$A$27</c:f>
+              <c:f>('Project Plan and Gantt'!$A$12:$C$12,'Project Plan and Gantt'!$A$13:$C$13,'Project Plan and Gantt'!$A$14:$A$15,'Project Plan and Gantt'!$A$16:$A$17,'Project Plan and Gantt'!$A$18:$A$20,'Project Plan and Gantt'!$A$21,'Project Plan and Gantt'!$A$22:$A$30,'Project Plan and Gantt'!$A$31:$C$31,'Project Plan and Gantt'!$A$32:$C$32,'Project Plan and Gantt'!$A$33:$C$33,'Project Plan and Gantt'!$A$34:$C$34,'Project Plan and Gantt'!$A$35:$C$35,'Project Plan and Gantt'!$A$36:$C$36,'Project Plan and Gantt'!$A$37:$C$37)</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Set kick-off meeting</c:v>
                 </c:pt>
@@ -616,54 +844,48 @@
                 <c:pt idx="2">
                   <c:v>Detailed Reqs.</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Technical Reqs.</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>DB Development</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Connect DB</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>Database Development</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Insert/Update/Query</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>API Development</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Function 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Function 2…</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>UI Client</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
+                  <c:v>Connect Database</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>API Development</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Function 1 Tìm kiếm sản phẩm</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Function 2 Giỏ hàng</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Function 3 Đăng nhập</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Function 4 Đăng ký</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Testing</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Hardware Config.</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>System Testing</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Launch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Plan and Gantt'!$C$12:$C$27</c:f>
+              <c:f>'Project Plan and Gantt'!$E$12:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42609</c:v>
                 </c:pt>
@@ -673,44 +895,62 @@
                 <c:pt idx="2">
                   <c:v>42610</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>42610</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>42611</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>42615</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>42619</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>42619</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42619</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42624</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42628</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>42633</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42638</c:v>
+                  <c:v>42623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42642</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42647</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42653</c:v>
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,7 +961,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Project Plan and Gantt'!$E$11</c:f>
+              <c:f>'Project Plan and Gantt'!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -730,162 +970,121 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0000FF"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0000FF"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="008000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="20"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="008000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="008000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="22"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="008000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="23"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="008000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="24"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="008000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="25"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="008000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF6600"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="660066"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Plan and Gantt'!$A$12:$A$27</c:f>
+              <c:f>('Project Plan and Gantt'!$A$12:$C$12,'Project Plan and Gantt'!$A$13:$C$13,'Project Plan and Gantt'!$A$14:$A$15,'Project Plan and Gantt'!$A$16:$A$17,'Project Plan and Gantt'!$A$18:$A$20,'Project Plan and Gantt'!$A$21,'Project Plan and Gantt'!$A$22:$A$30,'Project Plan and Gantt'!$A$31:$C$31,'Project Plan and Gantt'!$A$32:$C$32,'Project Plan and Gantt'!$A$33:$C$33,'Project Plan and Gantt'!$A$34:$C$34,'Project Plan and Gantt'!$A$35:$C$35,'Project Plan and Gantt'!$A$36:$C$36,'Project Plan and Gantt'!$A$37:$C$37)</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Set kick-off meeting</c:v>
                 </c:pt>
@@ -895,101 +1094,113 @@
                 <c:pt idx="2">
                   <c:v>Detailed Reqs.</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Technical Reqs.</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>DB Development</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Connect DB</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>Database Development</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Insert/Update/Query</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>API Development</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Function 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Function 2…</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>UI Client</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
+                  <c:v>Connect Database</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>API Development</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Function 1 Tìm kiếm sản phẩm</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Function 2 Giỏ hàng</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Function 3 Đăng nhập</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Function 4 Đăng ký</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Testing</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Hardware Config.</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>System Testing</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Launch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Plan and Gantt'!$E$12:$E$27</c:f>
+              <c:f>'Project Plan and Gantt'!$G$12:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,11 +1216,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="855304768"/>
-        <c:axId val="855135840"/>
+        <c:axId val="-1933395024"/>
+        <c:axId val="-1933391760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="855304768"/>
+        <c:axId val="-1933395024"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1019,7 +1230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="855135840"/>
+        <c:crossAx val="-1933391760"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="855135840"/>
+        <c:axId val="-1933391760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1039,10 +1250,21 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="855304768"/>
+        <c:crossAx val="-1933395024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1060,21 +1282,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1089,6 +1313,252 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Project Plan and Gantt"/>
+      <sheetName val="Stakeholder List"/>
+      <sheetName val="Cost Baseline"/>
+      <sheetName val="Communication Plan"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>Start</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>Days</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Set kick-off meeting</v>
+          </cell>
+          <cell r="E12">
+            <v>42609</v>
+          </cell>
+          <cell r="G12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Agree on objectives</v>
+          </cell>
+          <cell r="E13">
+            <v>42609</v>
+          </cell>
+          <cell r="G13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Detailed Reqs.</v>
+          </cell>
+          <cell r="E14">
+            <v>42610</v>
+          </cell>
+          <cell r="G14">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Technical Reqs.</v>
+          </cell>
+          <cell r="E16">
+            <v>42610</v>
+          </cell>
+          <cell r="G16">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Database Development</v>
+          </cell>
+          <cell r="E18">
+            <v>42611</v>
+          </cell>
+          <cell r="G18">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Connect Database</v>
+          </cell>
+          <cell r="E21">
+            <v>42615</v>
+          </cell>
+          <cell r="G21">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Insert/Update/Query</v>
+          </cell>
+          <cell r="E22">
+            <v>42619</v>
+          </cell>
+          <cell r="G22">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>API Development</v>
+          </cell>
+          <cell r="E23">
+            <v>42623</v>
+          </cell>
+          <cell r="G23">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Function 1 Tìm kiếm sản phẩm</v>
+          </cell>
+          <cell r="E24">
+            <v>42633</v>
+          </cell>
+          <cell r="G24">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Function 2 Giỏ hàng</v>
+          </cell>
+          <cell r="E25">
+            <v>42633</v>
+          </cell>
+          <cell r="G25">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Function 3 Đăng nhập</v>
+          </cell>
+          <cell r="E26">
+            <v>42637</v>
+          </cell>
+          <cell r="G26">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Function 4 Đăng ký</v>
+          </cell>
+          <cell r="E27">
+            <v>42637</v>
+          </cell>
+          <cell r="G27">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>UI Client</v>
+          </cell>
+          <cell r="E28">
+            <v>42641</v>
+          </cell>
+          <cell r="G28">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>42642</v>
+          </cell>
+          <cell r="G29">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>42642</v>
+          </cell>
+          <cell r="G30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>42642</v>
+          </cell>
+          <cell r="G31">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>42644</v>
+          </cell>
+          <cell r="G32">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>42644</v>
+          </cell>
+          <cell r="G33">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>42650</v>
+          </cell>
+          <cell r="G34">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>42650</v>
+          </cell>
+          <cell r="G35">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>42650</v>
+          </cell>
+          <cell r="G36">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Testing</v>
+          </cell>
+          <cell r="E37">
+            <v>42652</v>
+          </cell>
+          <cell r="G37">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1413,444 +1883,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="18">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20">
+        <v>42653</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D7" s="21">
+        <v>42609</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="21">
+        <v>42653</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="18">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="9.75" customHeight="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="26">
+        <v>42609</v>
+      </c>
+      <c r="F12" s="26">
+        <v>42610</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" ref="G12" si="0">F12-E12</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A13" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="28">
-        <v>42653</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="29">
         <v>42609</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="29">
-        <v>42653</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="18">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="9.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="F13" s="29">
+        <v>42610</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13:G38" si="1">F13-E13</f>
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="H13" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="50">
+        <v>42610</v>
+      </c>
+      <c r="F14" s="50">
+        <v>42613</v>
+      </c>
+      <c r="G14" s="53">
+        <f>F14-E14</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A16" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="51">
+        <v>42610</v>
+      </c>
+      <c r="F16" s="51">
+        <v>42613</v>
+      </c>
+      <c r="G16" s="54">
+        <f>F16-E16</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
+    </row>
+    <row r="18" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="50">
+        <v>42611</v>
+      </c>
+      <c r="F18" s="50">
+        <v>42615</v>
+      </c>
+      <c r="G18" s="53">
+        <f>F18-E18</f>
+        <v>4</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="57"/>
+    </row>
+    <row r="20" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="58"/>
+    </row>
+    <row r="21" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="29">
+        <v>42615</v>
+      </c>
+      <c r="F21" s="29">
+        <v>42619</v>
+      </c>
+      <c r="G21" s="22">
+        <f>F21-E21</f>
+        <v>4</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A22" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="29">
+        <v>42619</v>
+      </c>
+      <c r="F22" s="29">
+        <v>42621</v>
+      </c>
+      <c r="G22" s="22">
+        <f>F22-E22</f>
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="H22" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="29">
+        <v>42621</v>
+      </c>
+      <c r="F23" s="29">
+        <v>42623</v>
+      </c>
+      <c r="G23" s="22">
+        <f>F23-E23</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="29">
+        <v>42623</v>
+      </c>
+      <c r="F24" s="29">
+        <v>42625</v>
+      </c>
+      <c r="G24" s="22">
+        <f>F24-E24</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="29">
+        <v>42625</v>
+      </c>
+      <c r="F25" s="29">
+        <v>42627</v>
+      </c>
+      <c r="G25" s="22">
+        <f>F25-E25</f>
+        <v>2</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="29">
+        <v>42627</v>
+      </c>
+      <c r="F26" s="29">
+        <v>42629</v>
+      </c>
+      <c r="G26" s="22">
+        <f>F26-E26</f>
+        <v>2</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="29">
+        <v>42623</v>
+      </c>
+      <c r="F27" s="29">
+        <v>42625</v>
+      </c>
+      <c r="G27" s="22">
+        <f>F27-E27</f>
+        <v>2</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="29">
+        <v>42625</v>
+      </c>
+      <c r="F28" s="29">
+        <v>42627</v>
+      </c>
+      <c r="G28" s="22">
+        <f>F28-E28</f>
+        <v>2</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="29">
+        <v>42627</v>
+      </c>
+      <c r="F29" s="29">
+        <v>42637</v>
+      </c>
+      <c r="G29" s="22">
+        <f>F29-E29</f>
+        <v>10</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="29">
+        <v>42627</v>
+      </c>
+      <c r="F30" s="29">
+        <v>42637</v>
+      </c>
+      <c r="G30" s="22">
+        <f>F30-E30</f>
+        <v>10</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A31" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="29">
+        <v>42637</v>
+      </c>
+      <c r="F31" s="29">
+        <v>42644</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A32" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="29">
+        <v>42637</v>
+      </c>
+      <c r="F32" s="29">
+        <v>42644</v>
+      </c>
+      <c r="G32" s="22">
+        <f>F32-E32</f>
+        <v>7</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A33" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="29">
+        <v>42644</v>
+      </c>
+      <c r="F33" s="29">
+        <v>42648</v>
+      </c>
+      <c r="G33" s="22">
+        <f>F33-E33</f>
         <v>4</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="6">
-        <v>42609</v>
-      </c>
-      <c r="D12" s="6">
-        <v>42609</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" ref="E12" si="0">D12-C12</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="6">
-        <v>42609</v>
-      </c>
-      <c r="D13" s="6">
-        <v>42609</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13:E27" si="1">D13-C13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="6">
-        <v>42610</v>
-      </c>
-      <c r="D14" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6">
-        <v>42610</v>
-      </c>
-      <c r="D15" s="6">
-        <v>42613</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="6">
-        <v>42611</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42615</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="H33" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A34" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="29">
+        <v>42648</v>
+      </c>
+      <c r="F34" s="29">
+        <v>42652</v>
+      </c>
+      <c r="G34" s="22">
+        <f>F34-E34</f>
+        <v>4</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A35" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="29">
+        <v>42644</v>
+      </c>
+      <c r="F35" s="29">
+        <v>42648</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" ref="G35" si="2">F35-E35</f>
+        <v>4</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A36" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="29">
+        <v>42648</v>
+      </c>
+      <c r="F36" s="29">
+        <v>42652</v>
+      </c>
+      <c r="G36" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="6">
-        <v>42615</v>
-      </c>
-      <c r="D17" s="6">
-        <v>42619</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="H36" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A37" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="29">
+        <v>42652</v>
+      </c>
+      <c r="F37" s="29">
+        <v>42653</v>
+      </c>
+      <c r="G37" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="6">
-        <v>42619</v>
-      </c>
-      <c r="D18" s="6">
-        <v>42624</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="6">
-        <v>42619</v>
-      </c>
-      <c r="D19" s="6">
-        <v>42624</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="6">
-        <v>42619</v>
-      </c>
-      <c r="D20" s="6">
-        <v>42623</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="6">
-        <v>42624</v>
-      </c>
-      <c r="D21" s="6">
-        <v>42628</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="6">
-        <v>42628</v>
-      </c>
-      <c r="D22" s="6">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="6">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="6">
-        <v>42638</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A38" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="6">
-        <v>42638</v>
-      </c>
-      <c r="D24" s="6">
-        <v>42642</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="6">
-        <v>42642</v>
-      </c>
-      <c r="D25" s="6">
-        <v>42647</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="6">
-        <v>42647</v>
-      </c>
-      <c r="D26" s="6">
-        <v>42652</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="25">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24">
         <v>42653</v>
       </c>
-      <c r="D27" s="25">
+      <c r="F38" s="24">
         <v>42653</v>
       </c>
-      <c r="E27" s="8">
+      <c r="G38" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="29.1" customHeight="1"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="40" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="41" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="42" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="43" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="44" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="45" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="46" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="47" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="48" spans="1:8" ht="21.95" customHeight="1"/>
+    <row r="49" ht="29.1" customHeight="1"/>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1879,87 +2656,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="20" t="s">
-        <v>21</v>
+      <c r="A1" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60">
+      <c r="A5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60">
-      <c r="A5" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1995,129 +2772,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="B4" s="14">
         <v>0.5</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="16">
         <v>2800</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="16">
         <v>3500</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="16">
         <v>3600</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="14">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2149,168 +2926,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="B4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="E5" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="F5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="G5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -17,9 +17,6 @@
     <sheet name="Cost Baseline" sheetId="3" r:id="rId3"/>
     <sheet name="Communication Plan" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -671,18 +668,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -709,54 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1216,11 +1213,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1933395024"/>
-        <c:axId val="-1933391760"/>
+        <c:axId val="1446016464"/>
+        <c:axId val="1445888688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1933395024"/>
+        <c:axId val="1446016464"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1230,7 +1227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1933391760"/>
+        <c:crossAx val="1445888688"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1238,7 +1235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1933391760"/>
+        <c:axId val="1445888688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1250,7 +1247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1933395024"/>
+        <c:crossAx val="1446016464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,252 +1310,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Project Plan and Gantt"/>
-      <sheetName val="Stakeholder List"/>
-      <sheetName val="Cost Baseline"/>
-      <sheetName val="Communication Plan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>Start</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>Days</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Set kick-off meeting</v>
-          </cell>
-          <cell r="E12">
-            <v>42609</v>
-          </cell>
-          <cell r="G12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Agree on objectives</v>
-          </cell>
-          <cell r="E13">
-            <v>42609</v>
-          </cell>
-          <cell r="G13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Detailed Reqs.</v>
-          </cell>
-          <cell r="E14">
-            <v>42610</v>
-          </cell>
-          <cell r="G14">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Technical Reqs.</v>
-          </cell>
-          <cell r="E16">
-            <v>42610</v>
-          </cell>
-          <cell r="G16">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Database Development</v>
-          </cell>
-          <cell r="E18">
-            <v>42611</v>
-          </cell>
-          <cell r="G18">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Connect Database</v>
-          </cell>
-          <cell r="E21">
-            <v>42615</v>
-          </cell>
-          <cell r="G21">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Insert/Update/Query</v>
-          </cell>
-          <cell r="E22">
-            <v>42619</v>
-          </cell>
-          <cell r="G22">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>API Development</v>
-          </cell>
-          <cell r="E23">
-            <v>42623</v>
-          </cell>
-          <cell r="G23">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Function 1 Tìm kiếm sản phẩm</v>
-          </cell>
-          <cell r="E24">
-            <v>42633</v>
-          </cell>
-          <cell r="G24">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Function 2 Giỏ hàng</v>
-          </cell>
-          <cell r="E25">
-            <v>42633</v>
-          </cell>
-          <cell r="G25">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Function 3 Đăng nhập</v>
-          </cell>
-          <cell r="E26">
-            <v>42637</v>
-          </cell>
-          <cell r="G26">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Function 4 Đăng ký</v>
-          </cell>
-          <cell r="E27">
-            <v>42637</v>
-          </cell>
-          <cell r="G27">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>UI Client</v>
-          </cell>
-          <cell r="E28">
-            <v>42641</v>
-          </cell>
-          <cell r="G28">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>42642</v>
-          </cell>
-          <cell r="G29">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>42642</v>
-          </cell>
-          <cell r="G30">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>42642</v>
-          </cell>
-          <cell r="G31">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>42644</v>
-          </cell>
-          <cell r="G32">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>42644</v>
-          </cell>
-          <cell r="G33">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>42650</v>
-          </cell>
-          <cell r="G34">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>42650</v>
-          </cell>
-          <cell r="G35">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>42650</v>
-          </cell>
-          <cell r="G36">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Testing</v>
-          </cell>
-          <cell r="E37">
-            <v>42652</v>
-          </cell>
-          <cell r="G37">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1885,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
@@ -1970,11 +1721,11 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1992,11 +1743,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="35" t="s">
         <v>59</v>
       </c>
@@ -2015,11 +1766,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="36" t="s">
         <v>60</v>
       </c>
@@ -2038,136 +1789,136 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="41">
         <v>42610</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="41">
         <v>42613</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="49">
         <f>F14-E14</f>
         <v>3</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="58"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="43">
         <v>42610</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="43">
         <v>42613</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="50">
         <f>F16-E16</f>
         <v>3</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="53" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="58"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="41">
         <v>42611</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="41">
         <v>42615</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="49">
         <f>F18-E18</f>
         <v>4</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="57"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="58"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="36" t="s">
         <v>60</v>
       </c>
@@ -2178,7 +1929,7 @@
         <v>42619</v>
       </c>
       <c r="G21" s="22">
-        <f>F21-E21</f>
+        <f t="shared" ref="G21:G30" si="2">F21-E21</f>
         <v>4</v>
       </c>
       <c r="H21" s="30" t="s">
@@ -2186,13 +1937,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="36" t="s">
         <v>59</v>
       </c>
@@ -2203,7 +1954,7 @@
         <v>42621</v>
       </c>
       <c r="G22" s="22">
-        <f>F22-E22</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -2211,8 +1962,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -2228,7 +1979,7 @@
         <v>42623</v>
       </c>
       <c r="G23" s="22">
-        <f>F23-E23</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H23" s="30" t="s">
@@ -2236,8 +1987,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="32" t="s">
         <v>81</v>
       </c>
@@ -2251,7 +2002,7 @@
         <v>42625</v>
       </c>
       <c r="G24" s="22">
-        <f>F24-E24</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H24" s="30" t="s">
@@ -2259,8 +2010,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="32" t="s">
         <v>82</v>
       </c>
@@ -2274,7 +2025,7 @@
         <v>42627</v>
       </c>
       <c r="G25" s="22">
-        <f>F25-E25</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H25" s="30" t="s">
@@ -2282,8 +2033,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="32" t="s">
         <v>84</v>
       </c>
@@ -2297,7 +2048,7 @@
         <v>42629</v>
       </c>
       <c r="G26" s="22">
-        <f>F26-E26</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H26" s="30" t="s">
@@ -2305,8 +2056,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="32" t="s">
         <v>85</v>
       </c>
@@ -2320,7 +2071,7 @@
         <v>42625</v>
       </c>
       <c r="G27" s="22">
-        <f>F27-E27</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H27" s="30" t="s">
@@ -2328,8 +2079,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="33" t="s">
         <v>86</v>
       </c>
@@ -2343,7 +2094,7 @@
         <v>42627</v>
       </c>
       <c r="G28" s="22">
-        <f>F28-E28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H28" s="30" t="s">
@@ -2351,8 +2102,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="32" t="s">
         <v>87</v>
       </c>
@@ -2366,16 +2117,16 @@
         <v>42637</v>
       </c>
       <c r="G29" s="22">
-        <f>F29-E29</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="32" t="s">
         <v>88</v>
       </c>
@@ -2389,19 +2140,19 @@
         <v>42637</v>
       </c>
       <c r="G30" s="22">
-        <f>F30-E30</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="36" t="s">
         <v>59</v>
       </c>
@@ -2420,11 +2171,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="36" t="s">
         <v>60</v>
       </c>
@@ -2443,11 +2194,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="36" t="s">
         <v>59</v>
       </c>
@@ -2466,11 +2217,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="36" t="s">
         <v>59</v>
       </c>
@@ -2489,11 +2240,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="36" t="s">
         <v>60</v>
       </c>
@@ -2504,7 +2255,7 @@
         <v>42648</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" ref="G35" si="2">F35-E35</f>
+        <f t="shared" ref="G35" si="3">F35-E35</f>
         <v>4</v>
       </c>
       <c r="H35" s="34" t="s">
@@ -2512,11 +2263,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="36" t="s">
         <v>60</v>
       </c>
@@ -2535,11 +2286,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="36"/>
       <c r="E37" s="29">
         <v>42652</v>
@@ -2556,11 +2307,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="23"/>
       <c r="E38" s="24">
         <v>42653</v>
@@ -2587,11 +2338,25 @@
     <row r="49" ht="29.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:C38"/>
@@ -2608,25 +2373,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Tasks</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Function 4 Đăng ký</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -326,7 +323,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,14 +380,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -570,7 +559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -668,7 +657,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,81 +739,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +912,7 @@
                   <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42627</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>42637</c:v>
@@ -979,7 +965,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -989,7 +975,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -1176,7 +1162,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7</c:v>
@@ -1213,11 +1199,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1446016464"/>
-        <c:axId val="1445888688"/>
+        <c:axId val="865382848"/>
+        <c:axId val="865375776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1446016464"/>
+        <c:axId val="865382848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1227,7 +1213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1445888688"/>
+        <c:crossAx val="865375776"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1445888688"/>
+        <c:axId val="865375776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1247,7 +1233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1446016464"/>
+        <c:crossAx val="865382848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,7 +1623,7 @@
   <dimension ref="A2:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1721,11 +1707,11 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1743,11 +1729,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="35" t="s">
         <v>59</v>
       </c>
@@ -1766,11 +1752,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="36" t="s">
         <v>60</v>
       </c>
@@ -1789,136 +1775,136 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="50">
         <v>42610</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="50">
         <v>42613</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="53">
         <f>F14-E14</f>
         <v>3</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="54"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="57" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="51">
         <v>42610</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="51">
         <v>42613</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="54">
         <f>F16-E16</f>
         <v>3</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="57" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="54"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="50">
         <v>42611</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="50">
         <v>42615</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="53">
         <f>F18-E18</f>
         <v>4</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="53"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="54"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="36" t="s">
         <v>60</v>
       </c>
@@ -1937,13 +1923,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="36" t="s">
         <v>59</v>
       </c>
@@ -1962,8 +1948,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -1987,8 +1973,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="32" t="s">
         <v>81</v>
       </c>
@@ -2010,8 +1996,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="32" t="s">
         <v>82</v>
       </c>
@@ -2033,8 +2019,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="32" t="s">
         <v>84</v>
       </c>
@@ -2056,8 +2042,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="32" t="s">
         <v>85</v>
       </c>
@@ -2079,8 +2065,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="33" t="s">
         <v>86</v>
       </c>
@@ -2102,8 +2088,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="32" t="s">
         <v>87</v>
       </c>
@@ -2120,13 +2106,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H29" s="37" t="s">
-        <v>93</v>
+      <c r="H29" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="32" t="s">
         <v>88</v>
       </c>
@@ -2134,25 +2120,25 @@
         <v>60</v>
       </c>
       <c r="E30" s="29">
-        <v>42627</v>
+        <v>42629</v>
       </c>
       <c r="F30" s="29">
         <v>42637</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="36" t="s">
         <v>59</v>
       </c>
@@ -2171,11 +2157,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="36" t="s">
         <v>60</v>
       </c>
@@ -2194,11 +2180,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="36" t="s">
         <v>59</v>
       </c>
@@ -2217,11 +2203,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="36" t="s">
         <v>59</v>
       </c>
@@ -2240,11 +2226,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="36" t="s">
         <v>60</v>
       </c>
@@ -2263,11 +2249,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="36" t="s">
         <v>60</v>
       </c>
@@ -2286,11 +2272,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="36"/>
       <c r="E37" s="29">
         <v>42652</v>
@@ -2307,11 +2293,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="23"/>
       <c r="E38" s="24">
         <v>42653</v>
@@ -2338,25 +2324,11 @@
     <row r="49" ht="29.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:C38"/>
@@ -2373,11 +2345,25 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Tasks</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Function 4 Đăng ký</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Quốc Tuấn + Ngô Thị Tường Vy</t>
   </si>
 </sst>
 </file>
@@ -657,18 +660,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -694,51 +742,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,21 +966,11 @@
             <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1199,11 +1192,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="865382848"/>
-        <c:axId val="865375776"/>
+        <c:axId val="74852976"/>
+        <c:axId val="74849712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="865382848"/>
+        <c:axId val="74852976"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1213,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="865375776"/>
+        <c:crossAx val="74849712"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="865375776"/>
+        <c:axId val="74849712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1233,7 +1226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="865382848"/>
+        <c:crossAx val="74852976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1622,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1707,11 +1700,11 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1729,11 +1722,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="35" t="s">
         <v>59</v>
       </c>
@@ -1752,11 +1745,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="36" t="s">
         <v>60</v>
       </c>
@@ -1775,136 +1768,136 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="40">
         <v>42610</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="40">
         <v>42613</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="48">
         <f>F14-E14</f>
         <v>3</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="51" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="58"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="41" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="42">
         <v>42610</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="42">
         <v>42613</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="49">
         <f>F16-E16</f>
         <v>3</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="58"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="40">
         <v>42611</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="40">
         <v>42615</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="48">
         <f>F18-E18</f>
         <v>4</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="51" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="57"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="58"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="36" t="s">
         <v>60</v>
       </c>
@@ -1923,13 +1916,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="36" t="s">
         <v>59</v>
       </c>
@@ -1948,8 +1941,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -1973,8 +1966,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="32" t="s">
         <v>81</v>
       </c>
@@ -1996,8 +1989,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="32" t="s">
         <v>82</v>
       </c>
@@ -2019,8 +2012,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="32" t="s">
         <v>84</v>
       </c>
@@ -2042,8 +2035,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="32" t="s">
         <v>85</v>
       </c>
@@ -2065,8 +2058,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="33" t="s">
         <v>86</v>
       </c>
@@ -2088,8 +2081,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="32" t="s">
         <v>87</v>
       </c>
@@ -2111,8 +2104,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="32" t="s">
         <v>88</v>
       </c>
@@ -2134,11 +2127,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="36" t="s">
         <v>59</v>
       </c>
@@ -2157,11 +2150,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="36" t="s">
         <v>60</v>
       </c>
@@ -2180,11 +2173,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="36" t="s">
         <v>59</v>
       </c>
@@ -2203,11 +2196,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="36" t="s">
         <v>59</v>
       </c>
@@ -2226,11 +2219,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="36" t="s">
         <v>60</v>
       </c>
@@ -2249,11 +2242,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="36" t="s">
         <v>60</v>
       </c>
@@ -2272,12 +2265,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="E37" s="29">
         <v>42652</v>
       </c>
@@ -2293,11 +2288,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="23"/>
       <c r="E38" s="24">
         <v>42653</v>
@@ -2324,11 +2319,25 @@
     <row r="49" ht="29.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:C38"/>
@@ -2345,25 +2354,11 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
+++ b/Plan-Quan-Ly-Ban-Quan-Ao.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>Tasks</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>Nguyễn Đỗ Quốc Tuấn + Ngô Thị Tường Vy</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +389,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -562,7 +584,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -660,6 +682,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -669,80 +766,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1192,11 +1220,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="74852976"/>
-        <c:axId val="74849712"/>
+        <c:axId val="920616000"/>
+        <c:axId val="920623072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74852976"/>
+        <c:axId val="920616000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1206,7 +1234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74849712"/>
+        <c:crossAx val="920623072"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1214,7 +1242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74849712"/>
+        <c:axId val="920623072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1226,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74852976"/>
+        <c:crossAx val="920616000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1690,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1700,11 +1728,11 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1722,11 +1750,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="35" t="s">
         <v>59</v>
       </c>
@@ -1745,11 +1773,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="36" t="s">
         <v>60</v>
       </c>
@@ -1768,136 +1796,136 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="56" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="50">
         <v>42610</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="50">
         <v>42613</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="53">
         <f>F14-E14</f>
         <v>3</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="53"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="56" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="51">
         <v>42610</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="51">
         <v>42613</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="54">
         <f>F16-E16</f>
         <v>3</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="57" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="53"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="50">
         <v>42611</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="50">
         <v>42615</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="53">
         <f>F18-E18</f>
         <v>4</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="52"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="53"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="36" t="s">
         <v>60</v>
       </c>
@@ -1916,13 +1944,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="36" t="s">
         <v>59</v>
       </c>
@@ -1941,8 +1969,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -1966,8 +1994,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="32" t="s">
         <v>81</v>
       </c>
@@ -1989,8 +2017,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="32" t="s">
         <v>82</v>
       </c>
@@ -2012,8 +2040,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="32" t="s">
         <v>84</v>
       </c>
@@ -2035,8 +2063,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="32" t="s">
         <v>85</v>
       </c>
@@ -2058,8 +2086,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="33" t="s">
         <v>86</v>
       </c>
@@ -2081,8 +2109,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="32" t="s">
         <v>87</v>
       </c>
@@ -2104,8 +2132,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="32" t="s">
         <v>88</v>
       </c>
@@ -2127,11 +2155,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="36" t="s">
         <v>59</v>
       </c>
@@ -2145,16 +2173,16 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>9</v>
+      <c r="H31" s="65" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="36" t="s">
         <v>60</v>
       </c>
@@ -2168,16 +2196,16 @@
         <f>F32-E32</f>
         <v>7</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>9</v>
+      <c r="H32" s="65" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="36" t="s">
         <v>59</v>
       </c>
@@ -2191,16 +2219,16 @@
         <f>F33-E33</f>
         <v>4</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>9</v>
+      <c r="H33" s="66" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="36" t="s">
         <v>59</v>
       </c>
@@ -2219,11 +2247,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="36" t="s">
         <v>60</v>
       </c>
@@ -2237,16 +2265,16 @@
         <f t="shared" ref="G35" si="3">F35-E35</f>
         <v>4</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>9</v>
+      <c r="H35" s="66" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="36" t="s">
         <v>60</v>
       </c>
@@ -2265,11 +2293,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="36" t="s">
         <v>93</v>
       </c>
@@ -2288,11 +2316,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="23"/>
       <c r="E38" s="24">
         <v>42653</v>
@@ -2319,25 +2347,11 @@
     <row r="49" ht="29.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="A38:C38"/>
@@ -2354,11 +2368,25 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
